--- a/202300724_0957_■.xlsx
+++ b/202300724_0957_■.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">■</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">20230724_0959_LINUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230724_1023_LINUX</t>
   </si>
 </sst>
 </file>
@@ -138,10 +141,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.47265625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -164,6 +167,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>

--- a/202300724_0957_■.xlsx
+++ b/202300724_0957_■.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">■</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">20230724_1023_LINUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230724_1158_LINUX</t>
   </si>
 </sst>
 </file>
@@ -141,10 +144,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.47265625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -172,6 +175,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
